--- a/Parkinson_SampleData01.xlsx
+++ b/Parkinson_SampleData01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal Folders\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E74660-A213-46C5-BC02-58AD114FDD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5604438E-A3EA-49BE-884B-5061A19F5DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" xr2:uid="{1A95241F-69B9-4D07-9BDF-0CD891EBE633}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{1A95241F-69B9-4D07-9BDF-0CD891EBE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:BY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BW2" sqref="BW2"/>
+      <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,232 +864,231 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BY2" t="b">
-        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -1098,232 +1097,231 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AE3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AG3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AH3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AI3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AJ3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AK3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AL3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AM3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AN3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AO3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AP3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AR3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AS3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AT3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AU3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AZ3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BA3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BD3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BE3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BF3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BK3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BL3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BM3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BN3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BO3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BP3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BQ3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BR3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BS3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BT3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BU3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BV3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BW3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BX3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BY3" t="b">
-        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -1332,306 +1330,231 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <f>0.026+B4</f>
-        <v>2.5999999999999999E-2</v>
+        <v>3.0259999999999998</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:AM4" si="0">0.026+C4</f>
-        <v>5.1999999999999998E-2</v>
+        <v>3.052</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>7.8E-2</v>
+        <v>3.0779999999999998</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.104</v>
+        <v>3.1040000000000001</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>3.13</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0.156</v>
+        <v>3.1560000000000001</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0.182</v>
+        <v>3.1819999999999999</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0.20799999999999999</v>
+        <v>3.2080000000000002</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>0.23399999999999999</v>
+        <v>3.234</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>3.26</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
-        <v>0.28600000000000003</v>
+        <v>3.286</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>0.31200000000000006</v>
+        <v>3.3120000000000003</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
-        <v>0.33800000000000008</v>
+        <v>3.3380000000000001</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0.3640000000000001</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>0.39000000000000012</v>
+        <v>3.39</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
-        <v>0.41600000000000015</v>
+        <v>3.4160000000000004</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
-        <v>0.44200000000000017</v>
+        <v>3.4420000000000002</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
-        <v>0.46800000000000019</v>
+        <v>3.468</v>
       </c>
       <c r="U4">
-        <f t="shared" si="0"/>
-        <v>0.49400000000000022</v>
+        <v>3.4940000000000002</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
-        <v>0.52000000000000024</v>
+        <v>3.5200000000000005</v>
       </c>
       <c r="W4">
-        <f t="shared" si="0"/>
-        <v>0.54600000000000026</v>
+        <v>3.5460000000000003</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
-        <v>0.57200000000000029</v>
+        <v>3.5720000000000001</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>0.59800000000000031</v>
+        <v>3.5980000000000003</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
-        <v>0.62400000000000033</v>
+        <v>3.6240000000000006</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="0"/>
-        <v>0.65000000000000036</v>
+        <v>3.6500000000000004</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="0"/>
-        <v>0.67600000000000038</v>
+        <v>3.6760000000000002</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="0"/>
-        <v>0.7020000000000004</v>
+        <v>3.7020000000000004</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="0"/>
-        <v>0.72800000000000042</v>
+        <v>3.7280000000000006</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="0"/>
-        <v>0.75400000000000045</v>
+        <v>3.7540000000000004</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="0"/>
-        <v>0.78000000000000047</v>
+        <v>3.7800000000000002</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="0"/>
-        <v>0.80600000000000049</v>
+        <v>3.8060000000000005</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="0"/>
-        <v>0.83200000000000052</v>
+        <v>3.8320000000000007</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>0.85800000000000054</v>
+        <v>3.8580000000000005</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="0"/>
-        <v>0.88400000000000056</v>
+        <v>3.8840000000000003</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="0"/>
-        <v>0.91000000000000059</v>
+        <v>3.9100000000000006</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="0"/>
-        <v>0.93600000000000061</v>
+        <v>3.9360000000000008</v>
       </c>
       <c r="AM4">
-        <f t="shared" si="0"/>
-        <v>0.96200000000000063</v>
+        <v>3.9620000000000006</v>
       </c>
       <c r="AN4">
-        <f t="shared" ref="AN4:BV4" si="1">0.026+AO4</f>
-        <v>0.93600000000000061</v>
+        <v>3.9360000000000008</v>
       </c>
       <c r="AO4">
-        <f t="shared" si="1"/>
-        <v>0.91000000000000059</v>
+        <v>3.9100000000000006</v>
       </c>
       <c r="AP4">
-        <f t="shared" si="1"/>
-        <v>0.88400000000000056</v>
+        <v>3.8840000000000003</v>
       </c>
       <c r="AQ4">
-        <f t="shared" si="1"/>
-        <v>0.85800000000000054</v>
+        <v>3.8580000000000005</v>
       </c>
       <c r="AR4">
-        <f t="shared" si="1"/>
-        <v>0.83200000000000052</v>
+        <v>3.8320000000000007</v>
       </c>
       <c r="AS4">
-        <f t="shared" si="1"/>
-        <v>0.80600000000000049</v>
+        <v>3.8060000000000005</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="1"/>
-        <v>0.78000000000000047</v>
+        <v>3.7800000000000002</v>
       </c>
       <c r="AU4">
-        <f t="shared" si="1"/>
-        <v>0.75400000000000045</v>
+        <v>3.7540000000000004</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="1"/>
-        <v>0.72800000000000042</v>
+        <v>3.7280000000000006</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="1"/>
-        <v>0.7020000000000004</v>
+        <v>3.7020000000000004</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="1"/>
-        <v>0.67600000000000038</v>
+        <v>3.6760000000000002</v>
       </c>
       <c r="AY4">
-        <f t="shared" si="1"/>
-        <v>0.65000000000000036</v>
+        <v>3.6500000000000004</v>
       </c>
       <c r="AZ4">
-        <f t="shared" si="1"/>
-        <v>0.62400000000000033</v>
+        <v>3.6240000000000006</v>
       </c>
       <c r="BA4">
-        <f t="shared" si="1"/>
-        <v>0.59800000000000031</v>
+        <v>3.5980000000000003</v>
       </c>
       <c r="BB4">
-        <f t="shared" si="1"/>
-        <v>0.57200000000000029</v>
+        <v>3.5720000000000001</v>
       </c>
       <c r="BC4">
-        <f t="shared" si="1"/>
-        <v>0.54600000000000026</v>
+        <v>3.5460000000000003</v>
       </c>
       <c r="BD4">
-        <f t="shared" si="1"/>
-        <v>0.52000000000000024</v>
+        <v>3.5200000000000005</v>
       </c>
       <c r="BE4">
-        <f t="shared" si="1"/>
-        <v>0.49400000000000022</v>
+        <v>3.4940000000000002</v>
       </c>
       <c r="BF4">
-        <f t="shared" si="1"/>
-        <v>0.46800000000000019</v>
+        <v>3.468</v>
       </c>
       <c r="BG4">
-        <f t="shared" si="1"/>
-        <v>0.44200000000000017</v>
+        <v>3.4420000000000002</v>
       </c>
       <c r="BH4">
-        <f t="shared" si="1"/>
-        <v>0.41600000000000015</v>
+        <v>3.4160000000000004</v>
       </c>
       <c r="BI4">
-        <f t="shared" si="1"/>
-        <v>0.39000000000000012</v>
+        <v>3.39</v>
       </c>
       <c r="BJ4">
-        <f t="shared" si="1"/>
-        <v>0.3640000000000001</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="BK4">
-        <f t="shared" si="1"/>
-        <v>0.33800000000000008</v>
+        <v>3.3380000000000001</v>
       </c>
       <c r="BL4">
-        <f t="shared" si="1"/>
-        <v>0.31200000000000006</v>
+        <v>3.3120000000000003</v>
       </c>
       <c r="BM4">
-        <f t="shared" si="1"/>
-        <v>0.28600000000000003</v>
+        <v>3.286</v>
       </c>
       <c r="BN4">
-        <f t="shared" si="1"/>
-        <v>0.26</v>
+        <v>3.26</v>
       </c>
       <c r="BO4">
-        <f t="shared" si="1"/>
-        <v>0.23399999999999999</v>
+        <v>3.234</v>
       </c>
       <c r="BP4">
-        <f t="shared" si="1"/>
-        <v>0.20799999999999999</v>
+        <v>3.2080000000000002</v>
       </c>
       <c r="BQ4">
-        <f t="shared" si="1"/>
-        <v>0.182</v>
+        <v>3.1819999999999999</v>
       </c>
       <c r="BR4">
-        <f t="shared" si="1"/>
-        <v>0.156</v>
+        <v>3.1560000000000001</v>
       </c>
       <c r="BS4">
-        <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>3.13</v>
       </c>
       <c r="BT4">
-        <f t="shared" si="1"/>
-        <v>0.104</v>
+        <v>3.1040000000000001</v>
       </c>
       <c r="BU4">
-        <f t="shared" si="1"/>
-        <v>7.8E-2</v>
+        <v>3.0779999999999998</v>
       </c>
       <c r="BV4">
-        <f t="shared" si="1"/>
-        <v>5.1999999999999998E-2</v>
+        <v>3.052</v>
       </c>
       <c r="BW4">
-        <f>0.026+BX4</f>
-        <v>2.5999999999999999E-2</v>
+        <v>3.0259999999999998</v>
       </c>
       <c r="BX4">
-        <f>0</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BY4" t="b">
-        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -1640,306 +1563,231 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <f>SIN(COLUMN(C5))*0.2</f>
-        <v>2.8224001611973443E-2</v>
+        <v>3.0282240016119735</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:BO5" si="2">SIN(COLUMN(D5))*0.2</f>
-        <v>-0.15136049906158566</v>
+        <v>2.8486395009384142</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
-        <v>-0.1917848549326277</v>
+        <v>2.8082151450673725</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>-5.5883099639785175E-2</v>
+        <v>2.944116900360215</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0.13139731974375782</v>
+        <v>3.1313973197437579</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>0.19787164932467638</v>
+        <v>3.1978716493246764</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
-        <v>8.2423697048351327E-2</v>
+        <v>3.0824236970483514</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
-        <v>-0.10880422217787396</v>
+        <v>2.891195777822126</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>-0.19999804131014071</v>
+        <v>2.8000019586898595</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
-        <v>-0.107314583600087</v>
+        <v>2.8926854163999129</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
-        <v>8.4033407365328189E-2</v>
+        <v>3.0840334073653284</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
-        <v>0.19812147113897408</v>
+        <v>3.198121471138974</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
-        <v>0.13005756803142338</v>
+        <v>3.1300575680314235</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
-        <v>-5.7580663333013066E-2</v>
+        <v>2.9424193366669869</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>-0.19227949837591138</v>
+        <v>2.8077205016240887</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
-        <v>-0.15019744935433521</v>
+        <v>2.8498025506456646</v>
       </c>
       <c r="S5">
-        <f t="shared" si="2"/>
-        <v>2.9975441932590469E-2</v>
+        <v>3.0299754419325904</v>
       </c>
       <c r="T5">
-        <f t="shared" si="2"/>
-        <v>0.18258905014552554</v>
+        <v>3.1825890501455256</v>
       </c>
       <c r="U5">
-        <f t="shared" si="2"/>
-        <v>0.16733112770721123</v>
+        <v>3.1673311277072114</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
-        <v>-1.7702618580807752E-3</v>
+        <v>2.9982297381419194</v>
       </c>
       <c r="W5">
-        <f t="shared" si="2"/>
-        <v>-0.16924408083503414</v>
+        <v>2.8307559191649658</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
-        <v>-0.18111567240132478</v>
+        <v>2.818884327598675</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
-        <v>-2.6470350019554608E-2</v>
+        <v>2.9735296499804456</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="2"/>
-        <v>0.15251169009592055</v>
+        <v>3.1525116900959205</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="2"/>
-        <v>0.19127518568090063</v>
+        <v>3.1912751856809005</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="2"/>
-        <v>5.418115766157381E-2</v>
+        <v>3.0541811576615738</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="2"/>
-        <v>-0.13272677684259351</v>
+        <v>2.8672732231574063</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="2"/>
-        <v>-0.19760632481857238</v>
+        <v>2.8023936751814276</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="2"/>
-        <v>-8.0807529064613012E-2</v>
+        <v>2.9191924709353869</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="2"/>
-        <v>0.11028533624833813</v>
+        <v>3.1102853362483383</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="2"/>
-        <v>0.19998237202145344</v>
+        <v>3.1999823720214535</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="2"/>
-        <v>0.10581653722400478</v>
+        <v>3.1058165372240047</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="2"/>
-        <v>-8.5636533899230205E-2</v>
+        <v>2.9143634661007698</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="2"/>
-        <v>-0.19835577068862317</v>
+        <v>2.801644229311377</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="2"/>
-        <v>-0.1287076266713999</v>
+        <v>2.8712923733286</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="2"/>
-        <v>5.9273715741877064E-2</v>
+        <v>3.059273715741877</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="2"/>
-        <v>0.19275907725681757</v>
+        <v>3.1927590772568175</v>
       </c>
       <c r="AN5">
-        <f t="shared" si="2"/>
-        <v>0.14902263209586977</v>
+        <v>3.1490226320958699</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="2"/>
-        <v>-3.1724533760941802E-2</v>
+        <v>2.9682754662390582</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="2"/>
-        <v>-0.18330430958312677</v>
+        <v>2.8166956904168732</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="2"/>
-        <v>-0.16635494852571966</v>
+        <v>2.8336450514742801</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="2"/>
-        <v>3.5403850210827155E-3</v>
+        <v>3.0035403850210827</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="2"/>
-        <v>0.17018070490682369</v>
+        <v>3.1701807049068238</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="2"/>
-        <v>0.18035766952976184</v>
+        <v>3.1803576695297617</v>
       </c>
       <c r="AU5">
-        <f t="shared" si="2"/>
-        <v>2.47146245490448E-2</v>
+        <v>3.0247146245490448</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="2"/>
-        <v>-0.15365093226473336</v>
+        <v>2.8463490677352667</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="2"/>
-        <v>-0.19075053055189439</v>
+        <v>2.8092494694481056</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="2"/>
-        <v>-5.2474970740785755E-2</v>
+        <v>2.9475250292592143</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="2"/>
-        <v>0.13404583516867494</v>
+        <v>3.1340458351686751</v>
       </c>
       <c r="AZ5">
-        <f t="shared" si="2"/>
-        <v>0.19732551840809709</v>
+        <v>3.1973255184080971</v>
       </c>
       <c r="BA5">
-        <f t="shared" si="2"/>
-        <v>7.9185030036366844E-2</v>
+        <v>3.079185030036367</v>
       </c>
       <c r="BB5">
-        <f t="shared" si="2"/>
-        <v>-0.11175780977032326</v>
+        <v>2.8882421902296769</v>
       </c>
       <c r="BC5">
-        <f t="shared" si="2"/>
-        <v>-0.19995103467172398</v>
+        <v>2.8000489653282759</v>
       </c>
       <c r="BD5">
-        <f t="shared" si="2"/>
-        <v>-0.10431020041738237</v>
+        <v>2.8956897995826179</v>
       </c>
       <c r="BE5">
-        <f t="shared" si="2"/>
-        <v>8.7232951049564994E-2</v>
+        <v>3.0872329510495651</v>
       </c>
       <c r="BF5">
-        <f t="shared" si="2"/>
-        <v>0.19857452961690744</v>
+        <v>3.1985745296169075</v>
       </c>
       <c r="BG5">
-        <f t="shared" si="2"/>
-        <v>0.12734760142782758</v>
+        <v>3.1273476014278274</v>
       </c>
       <c r="BH5">
-        <f t="shared" si="2"/>
-        <v>-6.0962124220443337E-2</v>
+        <v>2.9390378757795568</v>
       </c>
       <c r="BI5">
-        <f t="shared" si="2"/>
-        <v>-0.19322355400167859</v>
+        <v>2.8067764459983215</v>
       </c>
       <c r="BJ5">
-        <f t="shared" si="2"/>
-        <v>-0.14783613932984457</v>
+        <v>2.8521638606701556</v>
       </c>
       <c r="BK5">
-        <f t="shared" si="2"/>
-        <v>3.3471140060561386E-2</v>
+        <v>3.0334711400605614</v>
       </c>
       <c r="BL5">
-        <f t="shared" si="2"/>
-        <v>0.18400520763935813</v>
+        <v>3.1840052076393581</v>
       </c>
       <c r="BM5">
-        <f t="shared" si="2"/>
-        <v>0.1653657358980207</v>
+        <v>3.1653657358980207</v>
       </c>
       <c r="BN5">
-        <f t="shared" si="2"/>
-        <v>-5.3102308047933595E-3</v>
+        <v>2.9946897691952068</v>
       </c>
       <c r="BO5">
-        <f t="shared" si="2"/>
-        <v>-0.17110399579506447</v>
+        <v>2.8288960042049354</v>
       </c>
       <c r="BP5">
-        <f t="shared" ref="BP5:BX5" si="3">SIN(COLUMN(BP5))*0.2</f>
-        <v>-0.17958553613785827</v>
+        <v>2.8204144638621416</v>
       </c>
       <c r="BQ5">
-        <f t="shared" si="3"/>
-        <v>-2.2956962756637445E-2</v>
+        <v>2.9770430372433627</v>
       </c>
       <c r="BR5">
-        <f t="shared" si="3"/>
-        <v>0.15477813631157783</v>
+        <v>3.1547781363115779</v>
       </c>
       <c r="BS5">
-        <f t="shared" si="3"/>
-        <v>0.19021093065087494</v>
+        <v>3.190210930650875</v>
       </c>
       <c r="BT5">
-        <f t="shared" si="3"/>
-        <v>5.0764672552407256E-2</v>
+        <v>3.0507646725524071</v>
       </c>
       <c r="BU5">
-        <f t="shared" si="3"/>
-        <v>-0.13535439137746152</v>
+        <v>2.8646456086225385</v>
       </c>
       <c r="BV5">
-        <f t="shared" si="3"/>
-        <v>-0.19702925209364949</v>
+        <v>2.8029707479063504</v>
       </c>
       <c r="BW5">
-        <f t="shared" si="3"/>
-        <v>-7.7556327081886089E-2</v>
+        <v>2.922443672918114</v>
       </c>
       <c r="BX5">
-        <f t="shared" si="3"/>
-        <v>0.11322152737963607</v>
+        <v>3.1132215273796362</v>
       </c>
       <c r="BY5" t="b">
-        <f>TRUE</f>
         <v>1</v>
       </c>
     </row>
@@ -1949,6 +1797,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E4DFFFD8D95AA941A9225DB43BED7C1F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7aad0e9b01718c243daaa46f7d0ee25e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a82228e696447e15f5cc3341de0e354">
     <xsd:element name="properties">
@@ -2062,22 +1925,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1317490-F48C-4087-A0E0-8258C50F9BAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188765BE-3BB2-444F-9779-73937A546519}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D338B835-0ECF-4FBF-A1B5-7314A698ADE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2091,27 +1962,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188765BE-3BB2-444F-9779-73937A546519}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1317490-F48C-4087-A0E0-8258C50F9BAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>